--- a/src/main/resources/xls/机场运输交接表.xlsx
+++ b/src/main/resources/xls/机场运输交接表.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11">
   <si>
-    <t>行李运输交接单（二联）</t>
+    <t>行李运输交接单</t>
   </si>
   <si>
     <t>填表人：</t>
@@ -55,8 +55,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -100,18 +100,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -123,14 +150,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -138,67 +188,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="136"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,11 +223,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -224,39 +257,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,25 +269,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -299,157 +443,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,17 +460,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -494,6 +483,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,39 +552,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,25 +566,25 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,146 +593,146 @@
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -741,7 +741,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -758,7 +758,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="62">
@@ -1131,12 +1130,13 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="4" max="4" width="13.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.25" style="1" customWidth="1"/>
@@ -1201,7 +1201,7 @@
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
+      <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
